--- a/TODO NOTES-POINTS.xlsx
+++ b/TODO NOTES-POINTS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Read about randomized quickselect which is having Θ(n) in CLRS.</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Heap Sort in C++</t>
+  </si>
+  <si>
+    <t>Get the logic for generating all the combinations (2^n)</t>
+  </si>
+  <si>
+    <t>Radix Sort</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,7 +500,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
